--- a/docs/radio/files/polybius.xlsx
+++ b/docs/radio/files/polybius.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmccarthy\Documents\PC_RTD_GITHUB_resources\PC-microbit-micropython\docs\radio\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70F3A8E-F404-4A61-84DA-D29D4A9F2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E15B0F-1EDF-4126-B58F-C6B886619416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1140" windowWidth="25620" windowHeight="14610" xr2:uid="{0C39FF8B-AC8B-4614-B3E2-AD58BB36D2C4}"/>
+    <workbookView xWindow="390" yWindow="450" windowWidth="20775" windowHeight="14610" xr2:uid="{0C39FF8B-AC8B-4614-B3E2-AD58BB36D2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,13 @@
     </font>
     <font>
       <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,10 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,6 +246,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,112 +574,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D079D762-2497-4383-B35F-E73F4F6272D4}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="B1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" cm="1">
-        <f t="array" ref="B2">IF(NOT(ISTEXT(B1)),"",MIN(IF($C$6:$G$10=B1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="I2" s="7" cm="1">
+        <f t="array" ref="I2">IF(NOT(ISTEXT(I1)),"",MIN(IF($C$6:$G$10=I1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v>3</v>
       </c>
-      <c r="C2" s="1" cm="1">
-        <f t="array" ref="C2">IF(NOT(ISTEXT(C1)),"",MIN(IF($C$6:$G$10=C1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="J2" s="7" cm="1">
+        <f t="array" ref="J2">IF(NOT(ISTEXT(J1)),"",MIN(IF($C$6:$G$10=J1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v>3</v>
       </c>
-      <c r="D2" s="1" cm="1">
-        <f t="array" ref="D2">IF(NOT(ISTEXT(D1)),"",MIN(IF($C$6:$G$10=D1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2">IF(NOT(ISTEXT(E1)),"",MIN(IF($C$6:$G$10=E1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="K2" s="7" cm="1">
+        <f t="array" ref="K2">IF(NOT(ISTEXT(K1)),"",MIN(IF($C$6:$G$10=K1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" cm="1">
+        <f t="array" ref="L2">IF(NOT(ISTEXT(L1)),"",MIN(IF($C$6:$G$10=L1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="str" cm="1">
-        <f t="array" ref="F2">IF(NOT(ISTEXT(F1)),"",MIN(IF($C$6:$G$10=F1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="M2" s="7" t="str" cm="1">
+        <f t="array" ref="M2">IF(NOT(ISTEXT(M1)),"",MIN(IF($C$6:$G$10=M1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v/>
       </c>
-      <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2">IF(NOT(ISTEXT(G1)),"",MIN(IF($C$6:$G$10=G1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="N2" s="7" cm="1">
+        <f t="array" ref="N2">IF(NOT(ISTEXT(N1)),"",MIN(IF($C$6:$G$10=N1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v>1</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">IF(NOT(ISTEXT(H1)),"",MIN(IF($C$6:$G$10=H1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2">IF(NOT(ISTEXT(I1)),"",MIN(IF($C$6:$G$10=I1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">IF(NOT(ISTEXT(J1)),"",MIN(IF($C$6:$G$10=J1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">IF(NOT(ISTEXT(K1)),"",MIN(IF($C$6:$G$10=K1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">IF(NOT(ISTEXT(L1)),"",MIN(IF($C$6:$G$10=L1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="O2" s="7" cm="1">
+        <f t="array" ref="O2">IF(NOT(ISTEXT(O1)),"",MIN(IF($C$6:$G$10=O1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="7" cm="1">
+        <f t="array" ref="P2">IF(NOT(ISTEXT(P1)),"",MIN(IF($C$6:$G$10=P1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7" cm="1">
+        <f t="array" ref="Q2">IF(NOT(ISTEXT(Q1)),"",MIN(IF($C$6:$G$10=Q1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" cm="1">
+        <f t="array" ref="R2">IF(NOT(ISTEXT(R1)),"",MIN(IF($C$6:$G$10=R1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="7" cm="1">
+        <f t="array" ref="S2">IF(NOT(ISTEXT(S1)),"",MIN(IF($C$6:$G$10=S1, ROW($C$6:$G$10)-ROW(INDEX($C$6:$G$10,1,1)))))</f>
         <v>2</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -671,170 +685,213 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" cm="1">
-        <f t="array" ref="B3">IF(NOT(ISTEXT(B1)),"",MIN(IF($C$6:$G$10=B1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="I3" s="5" cm="1">
+        <f t="array" ref="I3">IF(NOT(ISTEXT(I1)),"",MIN(IF($C$6:$G$10=I1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
         <v>2</v>
       </c>
-      <c r="C3" cm="1">
-        <f t="array" ref="C3">IF(NOT(ISTEXT(C1)),"",MIN(IF($C$6:$G$10=C1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>3</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">IF(NOT(ISTEXT(D1)),"",MIN(IF($C$6:$G$10=D1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3">IF(NOT(ISTEXT(E1)),"",MIN(IF($C$6:$G$10=E1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>3</v>
-      </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">IF(NOT(ISTEXT(F1)),"",MIN(IF($C$6:$G$10=F1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v/>
-      </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">IF(NOT(ISTEXT(G1)),"",MIN(IF($C$6:$G$10=G1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>2</v>
-      </c>
-      <c r="H3" cm="1">
-        <f t="array" ref="H3">IF(NOT(ISTEXT(H1)),"",MIN(IF($C$6:$G$10=H1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" cm="1">
-        <f t="array" ref="I3">IF(NOT(ISTEXT(I1)),"",MIN(IF($C$6:$G$10=I1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J3" cm="1">
+      <c r="J3" s="5" cm="1">
         <f t="array" ref="J3">IF(NOT(ISTEXT(J1)),"",MIN(IF($C$6:$G$10=J1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
         <v>3</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" s="5" cm="1">
         <f t="array" ref="K3">IF(NOT(ISTEXT(K1)),"",MIN(IF($C$6:$G$10=K1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" cm="1">
+        <f t="array" ref="L3">IF(NOT(ISTEXT(L1)),"",MIN(IF($C$6:$G$10=L1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="5" t="str" cm="1">
+        <f t="array" ref="M3">IF(NOT(ISTEXT(M1)),"",MIN(IF($C$6:$G$10=M1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v/>
+      </c>
+      <c r="N3" s="5" cm="1">
+        <f t="array" ref="N3">IF(NOT(ISTEXT(N1)),"",MIN(IF($C$6:$G$10=N1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" cm="1">
+        <f t="array" ref="O3">IF(NOT(ISTEXT(O1)),"",MIN(IF($C$6:$G$10=O1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" cm="1">
+        <f t="array" ref="P3">IF(NOT(ISTEXT(P1)),"",MIN(IF($C$6:$G$10=P1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" cm="1">
+        <f t="array" ref="Q3">IF(NOT(ISTEXT(Q1)),"",MIN(IF($C$6:$G$10=Q1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="5" cm="1">
+        <f t="array" ref="R3">IF(NOT(ISTEXT(R1)),"",MIN(IF($C$6:$G$10=R1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
         <v>4</v>
       </c>
-      <c r="L3" cm="1">
-        <f t="array" ref="L3">IF(NOT(ISTEXT(L1)),"",MIN(IF($C$6:$G$10=L1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
+      <c r="S3" s="5" cm="1">
+        <f t="array" ref="S3">IF(NOT(ISTEXT(S1)),"",MIN(IF($C$6:$G$10=S1, COLUMN($C$6:$G$10)-COLUMN(INDEX($C$6:$G$10,1,1)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="str">
+        <f>"("&amp;I2&amp;","&amp;I3&amp;")"</f>
+        <v>(3,2)</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f t="shared" ref="J4:S4" si="0">"("&amp;J2&amp;","&amp;J3&amp;")"</f>
+        <v>(3,3)</v>
+      </c>
+      <c r="K4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(0,0)</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,3)</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,2)</v>
+      </c>
+      <c r="O4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(0,0)</v>
+      </c>
+      <c r="P4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(0,3)</v>
+      </c>
+      <c r="Q4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(0,3)</v>
+      </c>
+      <c r="R4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(0,4)</v>
+      </c>
+      <c r="S4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,2)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" spans="2:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
